--- a/FileOutput/HyridResults.xlsx
+++ b/FileOutput/HyridResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SureshSelenium\ProjectWS\ERP_StockAccounting\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA92AA17-EAD4-48EC-B7DC-09BA7C4364E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247789FD-D8D7-4C6F-A282-4B4830C34191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="135">
   <si>
     <t>TCID</t>
   </si>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">Select Supplier Number </t>
   </si>
   <si>
-    <t>x_Category</t>
-  </si>
-  <si>
     <t>//select[@id='x_Supplier_Number']</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>captureCus</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
   </si>
   <si>
     <t>Pass</t>
@@ -441,7 +441,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="109" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,588 +472,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1727,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1837,103 +1255,6 @@
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2252,7 +1573,7 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="23">
+      <c r="D2" t="s" s="14">
         <v>134</v>
       </c>
     </row>
@@ -2266,7 +1587,7 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="81">
+      <c r="D3" t="s" s="44">
         <v>134</v>
       </c>
     </row>
@@ -2280,7 +1601,7 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="143">
+      <c r="D4" t="s" s="76">
         <v>134</v>
       </c>
     </row>
@@ -2294,7 +1615,7 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="205">
+      <c r="D5" t="s" s="108">
         <v>134</v>
       </c>
     </row>
@@ -2308,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
@@ -2378,7 +1699,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="5">
         <v>134</v>
       </c>
     </row>
@@ -2398,7 +1719,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="F4" t="s" s="6">
         <v>134</v>
       </c>
     </row>
@@ -2418,7 +1739,7 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="7">
         <v>134</v>
       </c>
     </row>
@@ -2438,7 +1759,7 @@
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" t="s" s="8">
         <v>134</v>
       </c>
     </row>
@@ -2458,7 +1779,7 @@
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="14">
+      <c r="F7" t="s" s="9">
         <v>134</v>
       </c>
     </row>
@@ -2478,7 +1799,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="16">
+      <c r="F8" t="s" s="10">
         <v>134</v>
       </c>
     </row>
@@ -2498,7 +1819,7 @@
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="18">
+      <c r="F9" t="s" s="11">
         <v>134</v>
       </c>
     </row>
@@ -2518,7 +1839,7 @@
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="20">
+      <c r="F10" t="s" s="12">
         <v>134</v>
       </c>
     </row>
@@ -2538,7 +1859,7 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="22">
+      <c r="F11" t="s" s="13">
         <v>134</v>
       </c>
     </row>
@@ -2551,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2601,7 +1922,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="24">
+      <c r="F2" t="s" s="15">
         <v>134</v>
       </c>
     </row>
@@ -2621,7 +1942,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="26">
+      <c r="F3" t="s" s="16">
         <v>134</v>
       </c>
     </row>
@@ -2641,7 +1962,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="28">
+      <c r="F4" t="s" s="17">
         <v>134</v>
       </c>
     </row>
@@ -2661,7 +1982,7 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="30">
+      <c r="F5" t="s" s="18">
         <v>134</v>
       </c>
     </row>
@@ -2681,7 +2002,7 @@
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="32">
+      <c r="F6" t="s" s="19">
         <v>134</v>
       </c>
     </row>
@@ -2701,7 +2022,7 @@
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="34">
+      <c r="F7" t="s" s="20">
         <v>134</v>
       </c>
     </row>
@@ -2721,7 +2042,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="36">
+      <c r="F8" t="s" s="21">
         <v>134</v>
       </c>
     </row>
@@ -2741,7 +2062,7 @@
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="38">
+      <c r="F9" t="s" s="22">
         <v>134</v>
       </c>
     </row>
@@ -2761,7 +2082,7 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="40">
+      <c r="F10" t="s" s="23">
         <v>134</v>
       </c>
     </row>
@@ -2781,7 +2102,7 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="42">
+      <c r="F11" t="s" s="24">
         <v>134</v>
       </c>
     </row>
@@ -2801,7 +2122,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="44">
+      <c r="F12" t="s" s="25">
         <v>134</v>
       </c>
     </row>
@@ -2821,7 +2142,7 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="46">
+      <c r="F13" t="s" s="26">
         <v>134</v>
       </c>
     </row>
@@ -2833,15 +2154,15 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="48">
+      <c r="F14" t="s" s="27">
         <v>134</v>
       </c>
     </row>
@@ -2853,15 +2174,15 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="50">
+      <c r="F15" t="s" s="28">
         <v>134</v>
       </c>
     </row>
@@ -2876,38 +2197,38 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="52">
+      <c r="F16" t="s" s="29">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="54">
+      <c r="F17" t="s" s="30">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -2916,18 +2237,18 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s" s="56">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s" s="31">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
@@ -2936,18 +2257,18 @@
         <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" t="s" s="58">
+      <c r="F19" t="s" s="32">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -2956,18 +2277,18 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2">
         <v>1000000</v>
       </c>
-      <c r="F20" t="s" s="60">
+      <c r="F20" t="s" s="33">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -2976,18 +2297,18 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>5000000</v>
       </c>
-      <c r="F21" t="s" s="62">
+      <c r="F21" t="s" s="34">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -2996,18 +2317,18 @@
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s" s="64">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s" s="35">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -3016,18 +2337,18 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="66">
+      <c r="F23" t="s" s="36">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3036,18 +2357,18 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="68">
+      <c r="F24" t="s" s="37">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -3056,18 +2377,18 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="70">
+      <c r="F25" t="s" s="38">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -3076,18 +2397,18 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="72">
+      <c r="F26" t="s" s="39">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -3096,22 +2417,22 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="74">
+      <c r="F27" t="s" s="40">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3121,7 +2442,7 @@
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="76">
+      <c r="F28" t="s" s="41">
         <v>134</v>
       </c>
     </row>
@@ -3141,7 +2462,7 @@
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="78">
+      <c r="F29" t="s" s="42">
         <v>134</v>
       </c>
     </row>
@@ -3161,7 +2482,7 @@
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="80">
+      <c r="F30" t="s" s="43">
         <v>134</v>
       </c>
     </row>
@@ -3225,7 +2546,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="82">
+      <c r="F2" t="s" s="45">
         <v>134</v>
       </c>
     </row>
@@ -3245,7 +2566,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="84">
+      <c r="F3" t="s" s="46">
         <v>134</v>
       </c>
     </row>
@@ -3265,7 +2586,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="86">
+      <c r="F4" t="s" s="47">
         <v>134</v>
       </c>
     </row>
@@ -3285,7 +2606,7 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="88">
+      <c r="F5" t="s" s="48">
         <v>134</v>
       </c>
     </row>
@@ -3305,7 +2626,7 @@
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="90">
+      <c r="F6" t="s" s="49">
         <v>134</v>
       </c>
     </row>
@@ -3325,7 +2646,7 @@
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="92">
+      <c r="F7" t="s" s="50">
         <v>134</v>
       </c>
     </row>
@@ -3345,7 +2666,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="94">
+      <c r="F8" t="s" s="51">
         <v>134</v>
       </c>
     </row>
@@ -3365,13 +2686,13 @@
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="96">
+      <c r="F9" t="s" s="52">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -3380,18 +2701,18 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="98">
+      <c r="F10" t="s" s="53">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -3400,18 +2721,18 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="100">
+      <c r="F11" t="s" s="54">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -3425,7 +2746,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="102">
+      <c r="F12" t="s" s="55">
         <v>134</v>
       </c>
     </row>
@@ -3445,13 +2766,13 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="104">
+      <c r="F13" t="s" s="56">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -3460,38 +2781,38 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="106">
+      <c r="F14" t="s" s="57">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="108">
+      <c r="F15" t="s" s="58">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -3500,18 +2821,18 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" t="s" s="110">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s" s="59">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -3520,18 +2841,18 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s" s="112">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s" s="60">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -3540,18 +2861,18 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" t="s" s="114">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s" s="61">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -3560,18 +2881,18 @@
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s" s="116">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s" s="62">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -3580,18 +2901,18 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" t="s" s="118">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s" s="63">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -3600,18 +2921,18 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s" s="120">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s" s="64">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -3620,18 +2941,18 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" t="s" s="122">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s" s="65">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -3640,18 +2961,18 @@
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" t="s" s="124">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s" s="66">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -3660,18 +2981,18 @@
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" t="s" s="126">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s" s="67">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -3680,18 +3001,18 @@
         <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="128">
+      <c r="F25" t="s" s="68">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -3700,18 +3021,18 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="130">
+      <c r="F26" t="s" s="69">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -3720,18 +3041,18 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="132">
+      <c r="F27" t="s" s="70">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -3740,18 +3061,18 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="134">
+      <c r="F28" t="s" s="71">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -3760,22 +3081,22 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="136">
+      <c r="F29" t="s" s="72">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3785,7 +3106,7 @@
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="138">
+      <c r="F30" t="s" s="73">
         <v>134</v>
       </c>
     </row>
@@ -3805,7 +3126,7 @@
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="140">
+      <c r="F31" t="s" s="74">
         <v>134</v>
       </c>
     </row>
@@ -3825,7 +3146,7 @@
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="142">
+      <c r="F32" t="s" s="75">
         <v>134</v>
       </c>
     </row>
@@ -3891,7 +3212,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="144">
+      <c r="F2" t="s" s="77">
         <v>134</v>
       </c>
     </row>
@@ -3911,7 +3232,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="146">
+      <c r="F3" t="s" s="78">
         <v>134</v>
       </c>
     </row>
@@ -3931,7 +3252,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="148">
+      <c r="F4" t="s" s="79">
         <v>134</v>
       </c>
     </row>
@@ -3951,7 +3272,7 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="150">
+      <c r="F5" t="s" s="80">
         <v>134</v>
       </c>
     </row>
@@ -3971,7 +3292,7 @@
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s" s="152">
+      <c r="F6" t="s" s="81">
         <v>134</v>
       </c>
     </row>
@@ -3991,7 +3312,7 @@
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="154">
+      <c r="F7" t="s" s="82">
         <v>134</v>
       </c>
     </row>
@@ -4011,7 +3332,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="156">
+      <c r="F8" t="s" s="83">
         <v>134</v>
       </c>
     </row>
@@ -4031,13 +3352,13 @@
       <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="158">
+      <c r="F9" t="s" s="84">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -4046,18 +3367,18 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="160">
+      <c r="F10" t="s" s="85">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -4066,18 +3387,18 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="162">
+      <c r="F11" t="s" s="86">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -4091,7 +3412,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="164">
+      <c r="F12" t="s" s="87">
         <v>134</v>
       </c>
     </row>
@@ -4111,13 +3432,13 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="166">
+      <c r="F13" t="s" s="88">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -4126,38 +3447,38 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="168">
+      <c r="F14" t="s" s="89">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="170">
+      <c r="F15" t="s" s="90">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -4166,18 +3487,18 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" t="s" s="172">
+      <c r="F16" t="s" s="91">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -4186,18 +3507,18 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" t="s" s="174">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s" s="92">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -4206,18 +3527,18 @@
         <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" t="s" s="176">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s" s="93">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -4226,18 +3547,18 @@
         <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s" s="178">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s" s="94">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -4246,18 +3567,18 @@
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" t="s" s="180">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s" s="95">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -4266,18 +3587,18 @@
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s" s="182">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s" s="96">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -4286,18 +3607,18 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" t="s" s="184">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s" s="97">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -4306,18 +3627,18 @@
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" t="s" s="186">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s" s="98">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -4326,18 +3647,18 @@
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" t="s" s="188">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s" s="99">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -4346,18 +3667,18 @@
         <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="190">
+      <c r="F25" t="s" s="100">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -4366,18 +3687,18 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="192">
+      <c r="F26" t="s" s="101">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -4386,18 +3707,18 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="194">
+      <c r="F27" t="s" s="102">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -4406,18 +3727,18 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="196">
+      <c r="F28" t="s" s="103">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -4426,21 +3747,21 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="198">
+      <c r="F29" t="s" s="104">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -4451,7 +3772,7 @@
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="200">
+      <c r="F30" t="s" s="105">
         <v>134</v>
       </c>
     </row>
@@ -4471,7 +3792,7 @@
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="202">
+      <c r="F31" t="s" s="106">
         <v>134</v>
       </c>
     </row>
@@ -4491,7 +3812,7 @@
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="204">
+      <c r="F32" t="s" s="107">
         <v>134</v>
       </c>
     </row>
